--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20490" windowHeight="2700"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20490" windowHeight="2700" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="用户故事" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
   <si>
     <t>{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,14 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/teachingCalendarTemplates?teachingCalendarsQuery=%7B%22pageSize%22%3A10%2C%22pageNumber%22%3A0%7D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成教学日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,11 +38,306 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/teachingCalendars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"111111":["data","id"]}</t>
+    <t>获取教学日历模板列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取教学日历模板详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/status/unarchived</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/status/archived</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"calanderId1":["data","id"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取教学日历审核理由不通过列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取教学日历列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取待审核教学日历列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的教学日历列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成教学日历1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成教学日历2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成教学日历3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"calanderId2":["data","id"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"calanderId3":["data","id"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId1}}/committed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId2}}/committed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId3}}/committed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交教学日历1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交教学日历2</t>
+  </si>
+  <si>
+    <t>提交教学日历3</t>
+  </si>
+  <si>
+    <t>归档未提交状态教学日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消归档未提交状态教学日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归档提交状态教学日历2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消归档提交状态教学日历2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成教学日历4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"calanderId4":["data","id"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId4}}/committed</t>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId5}}/committed</t>
+  </si>
+  <si>
+    <t>提交教学日历5</t>
+  </si>
+  <si>
+    <t>审核不通过教学日历3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交审核不通过的教学日历3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核通过未提交状态的教学日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核通过教学日历3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId3}}/pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交教学日历4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交待审核的教学日历4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId4}}/committed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成教学日历5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"calanderId5":["data","id"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核通过教学日历5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId5}}/pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId3}}/pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取教学日历1详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归档教学日历5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归档审核不通过状态教学日历3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消归档审核不通过教学日历3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消归档教学日历5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId3}}/reasons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"archiveIds":["{{calanderId1}}"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑已提交的教学日历2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId2}}/da651bff20ba4183ab17c3341f71ae28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑已提交的非本人操作的教学日历1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑审核不通过的教学日历3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑审核不通过的的非本人操作的教学日历1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId3}}/da651bff20ba4183ab17c3341f71ae28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑已归档的教学日历5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"archiveIds":["{{calanderId3}}"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"archiveIds":["{{calanderId5}}"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"auditDate":"2018-05-28T02:54:47.802Z","reason":"reson","teachingCalendarId":"{{calanderId3}}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId3}}/unpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars?teachingCalendarsQuery={"pageSize"=10,"pageNumber"="0","type"="0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendarTemplates?teachingCalendarQuery={"pageSize"=10,"pageNumber"=0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"3b2014ff925d440e9a8a4200d787fbb2":["dataList",0,"leaderId"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取已通过教学大纲列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,98 +345,536 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"templateIdContent":["data","teachingCalendarScheduleTemplates",0,"id"]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/teachingCalendarTemplates/{{templateId}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"classId":"string","className":"string","code":"string","collegeId":"string","collegeName":"string","courseId":"string","courseName":"string","credit":"string","directorId":"string","directorName":"string","exerciseHour":"string","experimentHour":"string","hours":"string","id":"string","leaderId":"string","leaderName":"string","lectureHour":"string","lecturerId":"string","lecturerName":"string","majorId":"string","majorName":"string","name":"string","principalId":"string","principalName":"string","semester":"string","status":"string","teachingCalendarSchedules":[{"chapterList":[{"chapterId":"string","chapterName":"string","sectionList":[{"sectionId":"string","sectionName":"string"}]}],"endDate":"string","id":"string","lectureClassroomHour":0,"lectureOutsideHour":0,"lectureTeacherId":"string","lectureTeacherName":"string","lectureTeachingHour":0,"practiceClassroomHour":0,"practiceOutsideHour":0,"practiceTeacherId":"string","practiceTeacherName":"string","remark":"string","startDate":"string","week":"string"}],"testForm":"string","updatedOn":"string","weeks":"string"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取教学日历模板列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取教学日历模板详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取教学日历列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取教学日历详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"calandetList":["dataList",0,"id"]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/teachingCalendars?teachingCalendarsQuery=%7B%22pageSize%22%3A10%2C%22pageNumber%22%3A0%7D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"calanderId":["data","id"]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/teachingCalendars/{{calanderId}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"11s1111":["data","id"]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归档教学日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"archiveIds":["string"],"classIds":["string"],"deleteIds":["string"],"pointIds":["string"],"questionIds":["string"],"roleIds":["string"],"userIds":["string"]}</t>
-  </si>
-  <si>
-    <t>取消归档教学日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/teachingCalendars/status/unarchived</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/teachingCalendars/{{calanderId}}/pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/teachingCalendars/{{calanderId}}/nopass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核不通过教学日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核通过教学日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/teachingCalendars/status/archived</t>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":["userList",0,"userId"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{templateId}}/{{userId}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{templateId}}/{{userId}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{templateId}}/{{userId}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId1}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取专业以及班级信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/teachers?teacherQuery={"pageSize"=10,"pageNumber"=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/classes?classQuery={"pageSize"=10,"pageNumber"=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"courseId":["data","courseId"],"courseName":["data","courseName"],"leaderId":["data","leaderId"],"leaderName":["data","leaderName"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"classId":"{{classId}}","className":"{{className}}","code":"JXRL001","collegeId":"3814a0b8ccec4463acfc4696e11111","collegeName":"计算机学院","courseId":"{{courseId}}","courseName":"{{courseName}}","credit":"10","directorId":"3b2014ff925d440e9a8a4200d787fbbf","directorName":"数学教研室1","endWeek":"结束星期","exerciseHour":"2","experimentHour":"8","hours":"10","leaderId":"{{userId}}","leaderName":"zhangsan","lectureHour":"10","lecturerId":"{{userId}}","lecturerName":"zhangsan","majorId":"{{majorId}}","majorName":"{{majorName}}","name":"教学日历001","principalId":"{{userId}}","principalName":"zhangsan","semester":"2017年上半学期","startWeek":"开始星期","practiceHour":"10","teachingCalendarSchedules":[{"chapterList":[{"chapterId":"{{chapterId}}","chapterName":"{{chapterName}}","sectionList":[{"sectionId":"{{sectionId}}","sectionName":"{{sectionName}}"}]}],"lectureClassroomHour":10,"lectureOutsideHour":10,"lectureTeacherId":"{{userId}}","lectureTeacherName":"zhangsan","lectureTeachingHour":5,"practiceClassroomHour":5,"practiceOutsideHour":5,"practiceTeacherId":"{{userId}}","practiceTeacherName":"zhangsan","remark":"备注","startDate":"2014.03.03","week":"01"}],"teachingHour":"10","teachingProgramId":"{{programId}}","templateId":"{{templateId}}","testForm":"string","updatedOn":"string","weeks":"10"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId2}}/{{userId}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId3}}/{{userId}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId5}}/da651bff20ba4183ab17c3341f71ae28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{calanderId5}}/{{userId}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{templateId}}/{{userId}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/examine/{{userId}}?teachingCalendarsQuery=%7B%22pageSize%22%3A%20100%2C%20%20%22pageNumber%22%3A%200%7D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/user/{{userId}}?teachingCalendarsQuery={"pageSize"=10,"pageNumber"="0","type"="0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"classId":"{{classId}}","className":"{{className}}","code":"JXRL001","collegeId":"3814a0b8ccec4463acfc4696e11111","collegeName":"计算机学院","courseId":"{{courseId}}","courseName":"{{courseName}}","credit":"10","directorId":"3b2014ff925d440e9a8a4200d787fbbf","directorName":"数学教研室1","endWeek":"结束星期","exerciseHour":"2","experimentHour":"8","hours":"10","leaderId":"{{userId}}","leaderName":"zhangsan","lectureHour":"10","lecturerId":"{{userId}}","lecturerName":"zhangsan","majorId":"{{majorId}}","majorName":"{{majorName}}","name":"教学日历001","principalId":"{{userId}}","principalName":"zhangsan","semester":"2017年上半学期","startWeek":"开始星期","practiceHour":"10","teachingCalendarSchedules":[{"chapterList":[{"chapterId":"{{chapterId}}","chapterName":"{{chapterName}}","sectionList":[{"sectionId":"{{sectionId}}","sectionName":"{{sectionName}}"}]}],"lectureClassroomHour":10,"lectureOutsideHour":10,"lectureTeacherId":"{{userId}}","lectureTeacherName":"zhangsan","lectureTeachingHour":5,"practiceClassroomHour":5,"practiceOutsideHour":5,"practiceTeacherId":"{{userId}}","practiceTeacherName":"zhangsan","remark":"备注","startDate":"2014.03.03","week":"01"}],"teachingHour":"10","teachingProgramId":"{{programId}}","templateId":"{{templateId}}","testForm":"string","updatedOn":"string","weeks":"10"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"archiveIds":["{{calanderId1}}","{{calanderId2}}"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"id":"{{calanderId2}}","classId":"{{classId}}","className":"{{className}}","code":"JXRL001","collegeId":"3814a0b8ccec4463acfc4696e11111","collegeName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","courseId":"{{courseId}}","courseName":"{{courseName}}","credit":"10","directorId":"3b2014ff925d440e9a8a4200d787fbbf","directorName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数学教研室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1","endWeek":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束星期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","exerciseHour":"2","experimentHour":"8","hours":"10","leaderId":"{{userId}}","leaderName":"zhangsan","lectureHour":"10","lecturerId":"{{userId}}","lecturerName":"zhangsan","majorId":"{{majorId}}","majorName":"{{majorName}}","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教学日历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>001","principalId":"{{userId}}","principalName":"zhangsan","semester":"2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年上半学期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","startWeek":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始星期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","practiceHour":"10","teachingCalendarSchedules":[{"chapterList":[{"chapterId":"{{chapterId}}","chapterName":"{{chapterName}}","sectionList":[{"sectionId":"{{sectionId}}","sectionName":"{{sectionName}}"}]}],"lectureClassroomHour":10,"lectureOutsideHour":10,"lectureTeacherId":"{{userId}}","lectureTeacherName":"zhangsan","lectureTeachingHour":5,"practiceClassroomHour":5,"practiceOutsideHour":5,"practiceTeacherId":"{{userId}}","practiceTeacherName":"zhangsan","remark":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","startDate":"2014.03.03","week":"01"}],"teachingHour":"10","teachingProgramId":"{{programId}}","templateId":"{{templateId}}","testForm":"string","updatedOn":"string","weeks":"10"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"id":"{{calanderId1}}","classId":"{{classId}}","className":"{{className}}","code":"JXRL001","collegeId":"3814a0b8ccec4463acfc4696e11111","collegeName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","courseId":"{{courseId}}","courseName":"{{courseName}}","credit":"10","directorId":"3b2014ff925d440e9a8a4200d787fbbf","directorName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数学教研室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1","endWeek":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束星期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","exerciseHour":"2","experimentHour":"8","hours":"10","leaderId":"{{userId}}","leaderName":"zhangsan","lectureHour":"10","lecturerId":"{{userId}}","lecturerName":"zhangsan","majorId":"{{majorId}}","majorName":"{{majorName}}","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教学日历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>001","principalId":"{{userId}}","principalName":"zhangsan","semester":"2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年上半学期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","startWeek":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始星期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","practiceHour":"10","teachingCalendarSchedules":[{"chapterList":[{"chapterId":"{{chapterId}}","chapterName":"{{chapterName}}","sectionList":[{"sectionId":"{{sectionId}}","sectionName":"{{sectionName}}"}]}],"lectureClassroomHour":10,"lectureOutsideHour":10,"lectureTeacherId":"{{userId}}","lectureTeacherName":"zhangsan","lectureTeachingHour":5,"practiceClassroomHour":5,"practiceOutsideHour":5,"practiceTeacherId":"{{userId}}","practiceTeacherName":"zhangsan","remark":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","startDate":"2014.03.03","week":"01"}],"teachingHour":"10","teachingProgramId":"{{programId}}","templateId":"{{templateId}}","testForm":"string","updatedOn":"string","weeks":"10"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"archiveIds":["{{calanderId2}}"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"{{calanderId3}}","classId":"{{classId}}","className":"{{className}}","code":"JXRL001","collegeId":"3814a0b8ccec4463acfc4696e11111","collegeName":"计算机学院","courseId":"{{courseId}}","courseName":"{{courseName}}","credit":"10","directorId":"3b2014ff925d440e9a8a4200d787fbbf","directorName":"数学教研室1","endWeek":"结束星期","exerciseHour":"2","experimentHour":"8","hours":"10","leaderId":"{{userId}}","leaderName":"zhangsan","lectureHour":"10","lecturerId":"{{userId}}","lecturerName":"zhangsan","majorId":"{{majorId}}","majorName":"{{majorName}}","name":"教学日历001","principalId":"{{userId}}","principalName":"zhangsan","semester":"2017年上半学期","startWeek":"开始星期","practiceHour":"10","teachingCalendarSchedules":[{"chapterList":[{"chapterId":"{{chapterId}}","chapterName":"{{chapterName}}","sectionList":[{"sectionId":"{{sectionId}}","sectionName":"{{sectionName}}"}]}],"lectureClassroomHour":10,"lectureOutsideHour":10,"lectureTeacherId":"{{userId}}","lectureTeacherName":"zhangsan","lectureTeachingHour":5,"practiceClassroomHour":5,"practiceOutsideHour":5,"practiceTeacherId":"{{userId}}","practiceTeacherName":"zhangsan","remark":"备注","startDate":"2014.03.03","week":"01"}],"teachingHour":"10","teachingProgramId":"{{programId}}","templateId":"{{templateId}}","testForm":"string","updatedOn":"string","weeks":"10"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"archiveIds":["{{calanderId5}}"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"id":"{{calanderId5}}","classId":"{{classId}}","className":"{{className}}","code":"JXRL001","collegeId":"3814a0b8ccec4463acfc4696e11111","collegeName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","courseId":"{{courseId}}","courseName":"{{courseName}}","credit":"10","directorId":"3b2014ff925d440e9a8a4200d787fbbf","directorName":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数学教研室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1","endWeek":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束星期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","exerciseHour":"2","experimentHour":"8","hours":"10","leaderId":"{{userId}}","leaderName":"zhangsan","lectureHour":"10","lecturerId":"{{userId}}","lecturerName":"zhangsan","majorId":"{{majorId}}","majorName":"{{majorName}}","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教学日历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>001","principalId":"{{userId}}","principalName":"zhangsan","semester":"2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年上半学期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","startWeek":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开始星期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","practiceHour":"10","teachingCalendarSchedules":[{"chapterList":[{"chapterId":"{{chapterId}}","chapterName":"{{chapterName}}","sectionList":[{"sectionId":"{{sectionId}}","sectionName":"{{sectionName}}"}]}],"lectureClassroomHour":10,"lectureOutsideHour":10,"lectureTeacherId":"{{userId}}","lectureTeacherName":"zhangsan","lectureTeachingHour":5,"practiceClassroomHour":5,"practiceOutsideHour":5,"practiceTeacherId":"{{userId}}","practiceTeacherName":"zhangsan","remark":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4A5560"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","startDate":"2014.03.03","week":"01"}],"teachingHour":"10","teachingProgramId":"{{programId}}","templateId":"{{templateId}}","testForm":"string","updatedOn":"string","weeks":"10"}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"majorId":["classList",0,"majorId"],"majorName":["classList",0,"majorName"],"classId":["classList",0,"id"],"className":["classList",0,"name"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/teachingCalendars/{{templateId}}/{{userId}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +882,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +910,34 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4A5560"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4A5560"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,7 +976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -230,6 +984,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -533,17 +1294,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="3" max="3" width="116.75" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="90.5" customWidth="1"/>
     <col min="6" max="6" width="28.5" customWidth="1"/>
@@ -553,14 +1314,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E1" s="4"/>
       <c r="F1">
         <v>0</v>
       </c>
@@ -568,19 +1330,20 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E2" s="4"/>
       <c r="F2">
         <v>0</v>
       </c>
@@ -588,131 +1351,140 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E4" s="4"/>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="F8">
         <v>0</v>
       </c>
@@ -720,33 +1492,741 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9">
+        <v>572</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>573</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>0</v>
+      <c r="E14" s="4"/>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15">
+        <v>642</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16">
+        <v>572</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17">
+        <v>573</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -757,4 +2237,29 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>